--- a/stcshop/doc/01. 산출물 템플릿/프로젝트_참고.xlsx
+++ b/stcshop/doc/01. 산출물 템플릿/프로젝트_참고.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JHKIM\Desktop\템플릿\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\STCUSER\git\stcshop\stcshop\doc\01. 산출물 템플릿\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E1278A7-DC34-49DD-8B5B-671F465F6F09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11DB263F-5C39-4F0D-9B91-4A5431F52ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="2685" yWindow="405" windowWidth="16230" windowHeight="14370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="-22140" yWindow="2985" windowWidth="20550" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="(참고) 산출물작성 유의사항" sheetId="16" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="122">
   <si>
     <t>비고</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -444,6 +444,33 @@
   </si>
   <si>
     <t>수정 -&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쇼핑 트렌드 분석 시스템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shopping Trends Analysis System</t>
+  </si>
+  <si>
+    <t>맞춤 상품추천 포함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STAS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PD-STAS-0100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PG-STAS-2400</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -456,22 +483,22 @@
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;₩&quot;* #,##0.00_-;\-&quot;₩&quot;* #,##0.00_-;_-&quot;₩&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₩&quot;* #,##0_ ;_ &quot;₩&quot;* \-#,##0_ ;_ &quot;₩&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="&quot;₩&quot;#,##0.00;[Red]&quot;₩&quot;\-#,##0.00"/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="180" formatCode="_ &quot;₩&quot;* #,##0.00_ ;_ &quot;₩&quot;* \-#,##0.00_ ;_ &quot;₩&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="181" formatCode="&quot;₩&quot;#,##0;[Red]&quot;₩&quot;\-#,##0"/>
-    <numFmt numFmtId="182" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="183" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="184" formatCode="#,##0;[Red]&quot;-&quot;#,##0"/>
-    <numFmt numFmtId="185" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="186" formatCode="#,##0.00;[Red]&quot;-&quot;#,##0.00"/>
-    <numFmt numFmtId="187" formatCode="&quot;₩&quot;#,##0.00;[Red]&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;\-&quot;₩&quot;#,##0.00"/>
-    <numFmt numFmtId="188" formatCode="&quot;₩&quot;#,##0;[Red]&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;\-&quot;₩&quot;#,##0"/>
-    <numFmt numFmtId="189" formatCode="_-&quot;₩&quot;* #,##0_-;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;\-&quot;₩&quot;* #,##0_-;_-&quot;₩&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="190" formatCode="_-* #,##0.00_-;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="191" formatCode="yy\-m\-d"/>
-    <numFmt numFmtId="192" formatCode="\$#,##0;\(\$#,##0\)"/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₩&quot;* #,##0_ ;_ &quot;₩&quot;* \-#,##0_ ;_ &quot;₩&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="&quot;₩&quot;#,##0.00;[Red]&quot;₩&quot;\-#,##0.00"/>
+    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₩&quot;* #,##0.00_ ;_ &quot;₩&quot;* \-#,##0.00_ ;_ &quot;₩&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="&quot;₩&quot;#,##0;[Red]&quot;₩&quot;\-#,##0"/>
+    <numFmt numFmtId="181" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="182" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="183" formatCode="#,##0;[Red]&quot;-&quot;#,##0"/>
+    <numFmt numFmtId="184" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="185" formatCode="#,##0.00;[Red]&quot;-&quot;#,##0.00"/>
+    <numFmt numFmtId="186" formatCode="&quot;₩&quot;#,##0.00;[Red]&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;\-&quot;₩&quot;#,##0.00"/>
+    <numFmt numFmtId="187" formatCode="&quot;₩&quot;#,##0;[Red]&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;\-&quot;₩&quot;#,##0"/>
+    <numFmt numFmtId="188" formatCode="_-&quot;₩&quot;* #,##0_-;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;\-&quot;₩&quot;* #,##0_-;_-&quot;₩&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="189" formatCode="_-* #,##0.00_-;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="190" formatCode="yy\-m\-d"/>
+    <numFmt numFmtId="191" formatCode="\$#,##0;\(\$#,##0\)"/>
   </numFmts>
   <fonts count="106">
     <font>
@@ -1776,24 +1803,24 @@
     <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="38" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="38" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="38" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="38" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1801,38 +1828,38 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="42" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="42" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="178" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="178" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="179" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="179" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="46" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="46" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1844,8 +1871,8 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1854,30 +1881,30 @@
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="43" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="43" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="180" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="180" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="180" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="180" fontId="38" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="38" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="180" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="180" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="180" fontId="38" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="181" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="181" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="181" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="181" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="181" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="38" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1885,38 +1912,38 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="181" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="181" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="180" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="180" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="181" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="181" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="181" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="180" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="180" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="181" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="181" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="180" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="180" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="181" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="181" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="180" fontId="46" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="46" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1928,8 +1955,8 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="180" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="180" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1938,33 +1965,33 @@
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="180" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="180" fontId="43" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="43" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="182" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="182" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="182" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="182" fontId="38" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="182" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="182" fontId="38" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="183" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="183" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="183" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="183" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="183" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="183" fontId="38" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="183" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="183" fontId="38" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="184" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="184" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="184" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="184" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="184" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="184" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="184" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="183" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="183" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1974,30 +2001,30 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="183" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="182" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="184" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="184" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="184" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="183" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="183" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="183" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="184" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="184" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="182" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="182" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="183" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="183" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="183" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="182" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="183" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="182" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="184" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="184" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="183" fontId="46" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="183" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="183" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="182" fontId="46" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="182" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="182" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2006,31 +2033,31 @@
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="183" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="183" fontId="43" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="182" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="182" fontId="43" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="184" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="184" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="184" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="184" fontId="38" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="184" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="184" fontId="38" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="185" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="185" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="185" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="185" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="185" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="185" fontId="38" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="185" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="185" fontId="38" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="186" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="186" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="186" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="186" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="186" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="186" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="186" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="185" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="185" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2040,30 +2067,30 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="185" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="184" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="186" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="186" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="186" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="185" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="185" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="185" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="186" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="186" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="184" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="184" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="185" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="185" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="185" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="184" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="185" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="184" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="186" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="186" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="185" fontId="46" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="185" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="185" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="184" fontId="46" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="184" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="184" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2072,8 +2099,8 @@
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="185" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="185" fontId="43" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="184" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="184" fontId="43" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="48" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2239,11 +2266,11 @@
     <xf numFmtId="0" fontId="66" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="67" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="68" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="186" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="181" fontId="69" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="187" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="69" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="188" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="189" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="70" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="71" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="38" fontId="72" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2270,8 +2297,8 @@
     <xf numFmtId="10" fontId="72" fillId="6" borderId="1" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="79" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="80" fillId="0" borderId="3"/>
-    <xf numFmtId="190" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="191" fontId="81" fillId="30" borderId="0">
+    <xf numFmtId="189" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="190" fontId="81" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="82" fillId="5" borderId="13">
@@ -2347,16 +2374,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="81" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="192" fontId="81" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="191" fontId="81" fillId="0" borderId="2">
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="181" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="181" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="181" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="181" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="181" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="191" fontId="81" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="81" fillId="0" borderId="2">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
@@ -2843,7 +2870,7 @@
     <xf numFmtId="0" fontId="16" fillId="17" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="17" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2894,6 +2921,18 @@
     </xf>
     <xf numFmtId="0" fontId="101" fillId="32" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1022">
@@ -4198,23 +4237,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A2:E43"/>
+  <dimension ref="A2:E52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="8.75" style="1"/>
-    <col min="2" max="2" width="28.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="30.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.69921875" style="1"/>
+    <col min="2" max="2" width="28.8984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.19921875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.59765625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30.59765625" style="1" customWidth="1"/>
     <col min="6" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.75" style="1"/>
+    <col min="7" max="7" width="23.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.59765625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5">
@@ -4222,7 +4261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="25.15" customHeight="1">
+    <row r="3" spans="1:5" ht="25.2" customHeight="1">
       <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
@@ -4253,255 +4292,230 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="B7" s="4" t="s">
-        <v>23</v>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="B8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>0</v>
-      </c>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" s="17"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="20"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="B9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="2"/>
+      <c r="B9" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="B10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="2"/>
+      <c r="B10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" ht="31.2">
       <c r="B11" s="6" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="B12" s="6" t="s">
-        <v>22</v>
-      </c>
+      <c r="B12" s="6"/>
       <c r="C12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>26</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="D13" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="2"/>
     </row>
-    <row r="15" spans="1:5">
-      <c r="B15" s="4" t="s">
-        <v>112</v>
-      </c>
+    <row r="14" spans="1:5">
+      <c r="B14" s="6"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" ht="31.2">
+      <c r="B15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="B16" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="2:5" ht="48.6" customHeight="1">
-      <c r="B17" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>30</v>
-      </c>
+    <row r="17" spans="2:5">
+      <c r="B17" s="6"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="2:5" ht="81">
+    <row r="18" spans="2:5" ht="31.2">
       <c r="B18" s="6" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>34</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="E18" s="2"/>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>37</v>
-      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="7"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="2:5" ht="27">
-      <c r="B20" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>110</v>
+    <row r="20" spans="2:5">
+      <c r="B20" s="6"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="2:5">
-      <c r="B22" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5">
-      <c r="B23" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>39</v>
+      <c r="D22" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="2:5">
-      <c r="B24" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>54</v>
+      <c r="B24" s="4" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="2:5">
-      <c r="B25" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>56</v>
+      <c r="B25" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:5">
-      <c r="B26" s="10" t="s">
-        <v>45</v>
+    <row r="26" spans="2:5" ht="48.6" customHeight="1">
+      <c r="B26" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>58</v>
+        <v>28</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="27" spans="2:5">
-      <c r="B27" s="10" t="s">
-        <v>47</v>
+    <row r="27" spans="2:5" ht="93.6">
+      <c r="B27" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>60</v>
+        <v>32</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="2:5">
-      <c r="B28" s="10" t="s">
-        <v>49</v>
+      <c r="B28" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>62</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="2:5">
-      <c r="B29" s="10" t="s">
-        <v>51</v>
+    <row r="29" spans="2:5" ht="31.2">
+      <c r="B29" s="6" t="s">
+        <v>107</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D29" s="10"/>
-      <c r="E29" s="3"/>
+        <v>108</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="31" spans="2:5">
       <c r="B31" s="4" t="s">
-        <v>63</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32" spans="2:5">
@@ -4519,156 +4533,255 @@
       </c>
     </row>
     <row r="33" spans="2:5">
-      <c r="B33" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>67</v>
+      <c r="B33" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="2:5">
-      <c r="B34" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="D34" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>71</v>
+      <c r="B34" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="2:5">
-      <c r="B35" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D35" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>75</v>
+      <c r="B35" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="2:5">
-      <c r="B36" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="D36" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="E36" s="16" t="s">
-        <v>79</v>
+      <c r="B36" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="2:5">
-      <c r="B37" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="D37" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>83</v>
+      <c r="B37" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="2:5">
-      <c r="B38" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="C38" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="D38" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="E38" s="16" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5">
-      <c r="B39" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="D39" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="E39" s="16" t="s">
-        <v>91</v>
-      </c>
+      <c r="B38" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D38" s="10"/>
+      <c r="E38" s="3"/>
     </row>
     <row r="40" spans="2:5">
-      <c r="B40" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="C40" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="D40" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="E40" s="16" t="s">
-        <v>95</v>
+      <c r="B40" s="4" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="2:5">
-      <c r="B41" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="C41" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D41" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E41" s="16" t="s">
-        <v>98</v>
+      <c r="B41" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="2:5">
       <c r="B42" s="15" t="s">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>102</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="2:5">
       <c r="B43" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5">
+      <c r="B44" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5">
+      <c r="B45" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E45" s="16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5">
+      <c r="B46" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="E46" s="16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5">
+      <c r="B47" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E47" s="16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5">
+      <c r="B48" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="E48" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5">
+      <c r="B49" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5">
+      <c r="B50" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E50" s="16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5">
+      <c r="B51" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="E51" s="16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5">
+      <c r="B52" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="C43" s="16" t="s">
+      <c r="C52" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="D43" s="15" t="s">
+      <c r="D52" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="E52" s="16" t="s">
         <v>106</v>
       </c>
     </row>

--- a/stcshop/doc/01. 산출물 템플릿/프로젝트_참고.xlsx
+++ b/stcshop/doc/01. 산출물 템플릿/프로젝트_참고.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\STCUSER\git\stcshop\stcshop\doc\01. 산출물 템플릿\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11DB263F-5C39-4F0D-9B91-4A5431F52ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{901A7205-9F3F-49E0-A8E9-E80EBAF29566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="-22140" yWindow="2985" windowWidth="20550" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="(참고) 산출물작성 유의사항" sheetId="16" r:id="rId1"/>
@@ -2870,7 +2870,7 @@
     <xf numFmtId="0" fontId="16" fillId="17" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="17" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2922,17 +2922,11 @@
     <xf numFmtId="0" fontId="101" fillId="32" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="105" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="104" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1022">
@@ -4240,7 +4234,7 @@
   <dimension ref="A2:E52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="15.6"/>
@@ -4302,10 +4296,10 @@
       <c r="C5" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="2" t="s">
         <v>117</v>
       </c>
     </row>
@@ -4315,8 +4309,8 @@
       </c>
       <c r="B6" s="17"/>
       <c r="C6" s="18"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="20"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="2"/>
     </row>
     <row r="9" spans="1:5">
       <c r="B9" s="4" t="s">
